--- a/相关文件报告/新建 Microsoft Excel 工作表.xlsx
+++ b/相关文件报告/新建 Microsoft Excel 工作表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xrdog\Desktop\毕业设计\相关文件报告\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AF4A229-C05D-4520-8D29-DD69A80EB99F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="10065" yWindow="5220" windowWidth="38700" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,15 +24,167 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="38">
+  <si>
+    <t>error</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>percent</t>
+  </si>
+  <si>
+    <t>(expected (.*) before (.*)|(expected (.*) at end of (.*))|(expected (.*) after (.*)))</t>
+  </si>
+  <si>
+    <t>(undeclared)|(was not declared)|(has not been declared)</t>
+  </si>
+  <si>
+    <t>stray ‘(.+?)’ in program</t>
+  </si>
+  <si>
+    <t>ld returned 1 exit status</t>
+  </si>
+  <si>
+    <t>没有那个文件或目录</t>
+  </si>
+  <si>
+    <t>unknown type name ‘(.+?)’</t>
+  </si>
+  <si>
+    <t>‘(.+?)’ has no member named ‘(.+?)’</t>
+  </si>
+  <si>
+    <t>variable-sized object may not be initialized</t>
+  </si>
+  <si>
+    <t>request for member ‘(.+?)’ in something not a structure or union</t>
+  </si>
+  <si>
+    <t>lvalue required as left operand of assignment</t>
+  </si>
+  <si>
+    <t>‘else’ without a previous ‘if’</t>
+  </si>
+  <si>
+    <t>variably modified ‘(.+?)’ at file scope</t>
+  </si>
+  <si>
+    <t>字段</t>
+  </si>
+  <si>
+    <t>类型</t>
+  </si>
+  <si>
+    <t>是否可选</t>
+  </si>
+  <si>
+    <t>备注</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>必选</t>
+  </si>
+  <si>
+    <t>编译器反馈信息</t>
+  </si>
+  <si>
+    <t>source_code</t>
+  </si>
+  <si>
+    <t>可选</t>
+  </si>
+  <si>
+    <t>程序源码</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>程序运行时间(ms)</t>
+  </si>
+  <si>
+    <t>result</t>
+  </si>
+  <si>
+    <t>程序运行结果的状态码(与CSUOJ数据库一致)</t>
+  </si>
+  <si>
+    <t>tips</t>
+  </si>
+  <si>
+    <t>增强提示信息</t>
+  </si>
+  <si>
+    <t>lines</t>
+  </si>
+  <si>
+    <t>错误所在行</t>
+  </si>
+  <si>
+    <t>example_before</t>
+  </si>
+  <si>
+    <t>错误示例代码</t>
+  </si>
+  <si>
+    <t>example_after</t>
+  </si>
+  <si>
+    <t>修改错误示例</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="2">
@@ -37,7 +195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -45,15 +203,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -330,13 +535,431 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A37" sqref="A37:D41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="18" customWidth="1"/>
+    <col min="2" max="2" width="10.125" customWidth="1"/>
+    <col min="3" max="3" width="10" customWidth="1"/>
+    <col min="4" max="4" width="40.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="3">
+        <v>9268</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0.29670000000000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3">
+        <v>5397</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.17280000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3">
+        <v>4862</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.15559999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="3">
+        <v>1724</v>
+      </c>
+      <c r="C5" s="4">
+        <v>5.5199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="3">
+        <v>1669</v>
+      </c>
+      <c r="C6" s="4">
+        <v>5.3400000000000003E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3">
+        <v>1391</v>
+      </c>
+      <c r="C7" s="4">
+        <v>4.4499999999999998E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="3">
+        <v>871</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2.7900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="3">
+        <v>649</v>
+      </c>
+      <c r="C9" s="4">
+        <v>2.0799999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="3">
+        <v>436</v>
+      </c>
+      <c r="C10" s="4">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="3">
+        <v>421</v>
+      </c>
+      <c r="C11" s="4">
+        <v>1.35E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B12" s="3">
+        <v>345</v>
+      </c>
+      <c r="C12" s="4">
+        <v>1.0999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="2">
+        <v>330</v>
+      </c>
+      <c r="C13" s="6">
+        <v>1.06E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="3">
+        <v>4517</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.31669999999999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B19" s="3">
+        <v>2178</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.1527</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B20" s="3">
+        <v>1724</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.12089999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1660</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.1164</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B22" s="3">
+        <v>907</v>
+      </c>
+      <c r="C22" s="4">
+        <v>6.3600000000000004E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B23" s="3">
+        <v>629</v>
+      </c>
+      <c r="C23" s="4">
+        <v>4.41E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B24" s="3">
+        <v>497</v>
+      </c>
+      <c r="C24" s="4">
+        <v>3.49E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="3">
+        <v>272</v>
+      </c>
+      <c r="C25" s="4">
+        <v>1.9099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="3">
+        <v>154</v>
+      </c>
+      <c r="C26" s="4">
+        <v>1.0800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B27" s="2">
+        <v>147</v>
+      </c>
+      <c r="C27" s="6">
+        <v>1.03E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="30" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C32" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D32" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="B34" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B37" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C37" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C39" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D39" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C40" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>